--- a/Tracker_Makeathon.xlsx
+++ b/Tracker_Makeathon.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1047557\Desktop\Osmosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1037322\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kavi_Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Activity Description</t>
   </si>
@@ -81,13 +82,285 @@
   </si>
   <si>
     <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Waiting for Product Owner</t>
+  </si>
+  <si>
+    <t>Waiting for link to ask for S/W</t>
+  </si>
+  <si>
+    <t>Finalized based on discussion with Product Owner</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>25-Feb to 2-March 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Resolve your queries: 26-Feb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define scope for MVP: 27-Feb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Provide required Software/Cloud lab details: 27-Feb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Design your App: 1-Mar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intermediate review: 2-Mar</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>3-March to 9-March 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Implement your app:  3-Mar to 8-Mar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Demo with problem owners: 9-Mar</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre-Final</t>
+  </si>
+  <si>
+    <t>10-Mar to 13-Mar 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Demonstrate your app to architect panel</t>
+    </r>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>16-Mar to 18-Mar 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Be part of top-3 teams to demonstrate your work on Grand finale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF003366"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF003366"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Be a champion!!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +376,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF003366"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003366"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF003366"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -161,11 +460,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -173,11 +557,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,21 +881,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -498,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -506,14 +929,17 @@
         <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>43881</v>
+        <v>43886</v>
       </c>
       <c r="E5" s="2">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -521,14 +947,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>43881</v>
+        <v>43887</v>
       </c>
       <c r="E6" s="2">
-        <v>43886</v>
+        <v>43888</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -536,14 +965,17 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="E7" s="2">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -551,14 +983,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>43885</v>
+        <v>43892</v>
       </c>
       <c r="E8" s="2">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -566,14 +998,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>43887</v>
+        <v>43893</v>
       </c>
       <c r="E9" s="2">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -581,14 +1013,14 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="E10" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -596,14 +1028,14 @@
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="E11" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -611,37 +1043,37 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>43893</v>
+        <v>43898</v>
       </c>
       <c r="E12" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="4"/>
     </row>
   </sheetData>
@@ -652,4 +1084,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.6328125" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>